--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\TAMU\CSCE_470\project\code\create_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\TAMU\CSCE_470\project\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6BDB0C-79A4-4623-B6A4-149AE53B97AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8EA638-DFFF-48DF-83A1-52E88697642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16710" yWindow="1395" windowWidth="12720" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="3990" windowWidth="12720" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="1144">
   <si>
     <t>songName</t>
   </si>
@@ -3461,22 +3461,7 @@
     <t>0K4pIOOsfJ9lK8OjrZfXzd</t>
   </si>
   <si>
-    <t>Tempo</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Acousticness</t>
-  </si>
-  <si>
-    <t>Danceability</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -3544,7 +3529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3553,6 +3538,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3895,13 +3883,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1143</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3959,24 +3950,12 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>1147</v>
-      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -4038,29 +4017,6 @@
       </c>
       <c r="T2">
         <v>90.673000000000002</v>
-      </c>
-      <c r="V2">
-        <v>501</v>
-      </c>
-      <c r="W2">
-        <f>AVERAGE(T2:T502)</f>
-        <v>119.38477644710582</v>
-      </c>
-      <c r="X2">
-        <f>AVERAGE(I2:I502)</f>
-        <v>5.1497005988023954</v>
-      </c>
-      <c r="Y2">
-        <f>AVERAGE(N2:N502)</f>
-        <v>0.6223259481037926</v>
-      </c>
-      <c r="Z2">
-        <f>AVERAGE(L2:L502)</f>
-        <v>0.25702211017964083</v>
-      </c>
-      <c r="AA2">
-        <f>AVERAGE(M2:M502)</f>
-        <v>0.61726946107784386</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -35065,5 +35021,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\TAMU\CSCE_470\project\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8EA638-DFFF-48DF-83A1-52E88697642B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F7ABB2-910A-46A0-B8BB-13BF70A103DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="3990" windowWidth="12720" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3529,7 +3529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3543,6 +3543,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3883,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="B378" sqref="B378"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="X138" sqref="X138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12637,65 +12641,65 @@
         <v>98.028000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="6">
         <v>197573</v>
       </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142">
-        <v>1</v>
-      </c>
-      <c r="K142">
-        <v>4</v>
-      </c>
-      <c r="L142">
+      <c r="I142" s="6">
+        <v>0</v>
+      </c>
+      <c r="J142" s="6">
+        <v>1</v>
+      </c>
+      <c r="K142" s="6">
+        <v>4</v>
+      </c>
+      <c r="L142" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="6">
         <v>0.90100000000000002</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="6">
         <v>0.4</v>
       </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
+      <c r="O142" s="6">
+        <v>0</v>
+      </c>
+      <c r="P142" s="6">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" s="6">
         <v>-8.5749999999999993</v>
       </c>
-      <c r="R142">
+      <c r="R142" s="6">
         <v>0.126</v>
       </c>
-      <c r="S142">
+      <c r="S142" s="6">
         <v>0.34599999999999997</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="6">
         <v>135.98400000000001</v>
       </c>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\TAMU\CSCE_470\project\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\Spotify-Mood-Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F7ABB2-910A-46A0-B8BB-13BF70A103DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D1A2D0-6D4D-4A47-9352-B3F117A6A0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3887,13 +3887,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="X138" sqref="X138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1143</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>90.673000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>119.949</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>81.186000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>87.492999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>148.11799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>146.09899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>169.97</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>175.47200000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>170.96199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>100.021</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>118.06100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>94.944999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>108.968</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>125.209</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>131.922</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>151.97999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>100.901</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>77.888000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>170.71799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>122.947</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>86.317999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>81.603999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>145.07400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>86.46</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>163.94900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>170.00399999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>77.271000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>85.686999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>80.506</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>106.869</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>144.06399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>117.127</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>138.999</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>157.941</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>147.98599999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>145.84200000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>75.012</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>139.97999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>149.982</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>129.96700000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>141.97</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>109.352</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>127.298</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>64.061999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>190.06399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>147.57499999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>83.831999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>145.869</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>122.72799999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>94.018000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>172.245</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>175.99199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>97.003</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>94.995000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>164.08099999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>93.06</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>92.971000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>99.981999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>122.97799999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>122.913</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>93.888000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>128.00299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>125.039</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>126.00700000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>122.982</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>120.283</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>115.999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>120.56699999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>123.01300000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>122.98699999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>128.149</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>94.034999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>107.07899999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>124.49299999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>113.006</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>93.015000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>129.99299999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>155.93799999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>125.02200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>152.279</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>167.911</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>136.048</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>106.029</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>129.977</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>138.01499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>159.94900000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>121.95399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>135.065</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>92.978999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>97.989000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>95.004999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>138.05799999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>81.655000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>101.956</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>151.95699999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>91.046000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>91.667000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10037,7 +10037,7 @@
         <v>101.00700000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>88.010999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>91.418999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>98.001000000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>170.125</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>92.47</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>72.138000000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>144.88200000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>137.976</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>84.87</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>80.042000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>112.929</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>119.83499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>114.021</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>158.053</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>139.82900000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>104.024</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>98.088999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>76.591999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>83.143000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>104.973</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>79.513999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>98.025999999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>76.001999999999995</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>103.289</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>142.00800000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>71.760999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>150.03399999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>145.012</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>150.047</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>126.04600000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>175.898</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>126.024</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>75.102000000000004</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>146.18799999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>147.01599999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>148.149</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>77.561999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>79.555999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>164.047</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>84.962999999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>98.028000000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>140</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>135.98400000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>97.037999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>75.046000000000006</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>120.005</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>103.012</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>139.994</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>109.98099999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>129.666</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>143.97999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>78.616</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>116.989</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>83.162000000000006</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>144.03399999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>89.677000000000007</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>110.001</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>125.119</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>82.518000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>129.95599999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>127.52500000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>98.025999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>144.941</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>82.983999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>143.24100000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>110.03700000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>128.029</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>127.94499999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>153.131</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>123.342</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>123.017</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>147.95699999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>139.864</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>118.03700000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>143.477</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>65.826999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>123.036</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>117.98699999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>123.056</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>119.006</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>117.94499999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -15183,7 +15183,7 @@
         <v>75.823999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>116.00700000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>121.02800000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>120.006</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>116.001</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>122.015</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>121.45399999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>122.965</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>122.973</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -15741,7 +15741,7 @@
         <v>115.95699999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>93.311000000000007</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>110.001</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>126.08799999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>103.04300000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>121.096</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>115.092</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>125.087</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>103.98</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>59.634999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>116.962</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>117.992</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>154.791</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -16547,7 +16547,7 @@
         <v>110.389</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>100.047</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>99.835999999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>124.959</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>130.21799999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>132.113</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>76.388000000000005</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>144.96799999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>120.042</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>145.01</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>112.93</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -17291,7 +17291,7 @@
         <v>139.91900000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>117.943</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -17415,7 +17415,7 @@
         <v>95.073999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>89.96</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>74.013000000000005</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>150.06800000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>163.88200000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>102.94</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>99.96</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>139.863</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>95.39</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>99.048000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>101.98699999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>95.945999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>110.011</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -18221,7 +18221,7 @@
         <v>104.959</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>140.02600000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>160.02000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>94.022000000000006</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -18469,7 +18469,7 @@
         <v>122.017</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>120.996</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>130.01599999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>73.078999999999994</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>87.093999999999994</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>114.05500000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>119.983</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>149.09200000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>95.165000000000006</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -19027,7 +19027,7 @@
         <v>100.011</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>76.710999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>90.078999999999994</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>78.361000000000004</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -19275,7 +19275,7 @@
         <v>87.14</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -19337,7 +19337,7 @@
         <v>179.352</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>120.08499999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -19461,7 +19461,7 @@
         <v>119.97799999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>108.36</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -19585,7 +19585,7 @@
         <v>34.698</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>95.028000000000006</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>119.94499999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>121.786</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -19833,7 +19833,7 @@
         <v>147.96700000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>92.975999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>179.78800000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>79.968000000000004</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>94.010999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>93.093999999999994</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>143.995</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -20267,7 +20267,7 @@
         <v>92.988</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>90.040999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>158.09299999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>92.025000000000006</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>102.819</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>114.998</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>112.968</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>77.341999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>101.96899999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>89.998999999999995</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>100.03100000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -20949,7 +20949,7 @@
         <v>111.98399999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -21011,7 +21011,7 @@
         <v>110.953</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>190.054</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>150.03200000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -21197,7 +21197,7 @@
         <v>139.745</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>121.06</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -21321,7 +21321,7 @@
         <v>93.034000000000006</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -21383,7 +21383,7 @@
         <v>113.869</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>99.989000000000004</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>83.856999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -21569,7 +21569,7 @@
         <v>123.956</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>95.103999999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>130.155</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>116.94499999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>133.68600000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>87.870999999999995</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>85.251999999999995</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>107.97499999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>183.00399999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>204.518</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>134.05000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -22313,7 +22313,7 @@
         <v>140.43799999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>108.89700000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -22437,7 +22437,7 @@
         <v>124.05</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>135.12799999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -22623,7 +22623,7 @@
         <v>111.554</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -22685,7 +22685,7 @@
         <v>150.45500000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -22747,7 +22747,7 @@
         <v>185.04400000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>118.02800000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -22871,7 +22871,7 @@
         <v>82.641999999999996</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>62.445999999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -22995,7 +22995,7 @@
         <v>100.029</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>120.04600000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -23119,7 +23119,7 @@
         <v>120.02</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>79.763999999999996</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>137.446</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>74.317999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>144.97499999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -23429,7 +23429,7 @@
         <v>134.202</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -23491,7 +23491,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -23553,7 +23553,7 @@
         <v>91.974000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -23615,7 +23615,7 @@
         <v>94.384</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>115.004</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -23739,7 +23739,7 @@
         <v>110.898</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -23801,7 +23801,7 @@
         <v>127.88</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -23863,7 +23863,7 @@
         <v>151.77699999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>82.215000000000003</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>172.006</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -24049,7 +24049,7 @@
         <v>153.19900000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>80.097999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>82.134</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>145.91800000000001</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -24297,7 +24297,7 @@
         <v>112.04900000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -24359,7 +24359,7 @@
         <v>165.97900000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -24421,7 +24421,7 @@
         <v>89.95</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -24483,7 +24483,7 @@
         <v>140.03299999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>74.545000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -24607,7 +24607,7 @@
         <v>103.86799999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>88.965999999999994</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>165.995</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -24793,7 +24793,7 @@
         <v>75.055000000000007</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>171.983</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -24917,7 +24917,7 @@
         <v>183.58600000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>113.542</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>145.68</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>144.989</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>92.028999999999996</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -25227,7 +25227,7 @@
         <v>155.08099999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -25289,7 +25289,7 @@
         <v>137.024</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -25351,7 +25351,7 @@
         <v>93.007000000000005</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -25413,7 +25413,7 @@
         <v>134.935</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>98.742999999999995</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>106.97199999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -25599,7 +25599,7 @@
         <v>139.90199999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>130.04499999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -25723,7 +25723,7 @@
         <v>147.99100000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -25785,7 +25785,7 @@
         <v>75.938000000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -25847,7 +25847,7 @@
         <v>129.947</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -25909,7 +25909,7 @@
         <v>110.137</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>94.954999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -26033,7 +26033,7 @@
         <v>89.566999999999993</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>135.88200000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -26157,7 +26157,7 @@
         <v>119.58</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -26219,7 +26219,7 @@
         <v>83.454999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>141.898</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -26343,7 +26343,7 @@
         <v>93.933000000000007</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>95.945999999999998</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>150.072</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -26529,7 +26529,7 @@
         <v>118.84</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>179.947</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -26653,7 +26653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -26715,7 +26715,7 @@
         <v>100.07299999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>81.045000000000002</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -26839,7 +26839,7 @@
         <v>143.929</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>177.91300000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>104.989</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -27025,7 +27025,7 @@
         <v>90.010999999999996</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>130.029</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -27149,7 +27149,7 @@
         <v>166.779</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -27211,7 +27211,7 @@
         <v>104.997</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>115.023</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -27335,7 +27335,7 @@
         <v>82.483000000000004</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -27397,7 +27397,7 @@
         <v>119.997</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -27459,7 +27459,7 @@
         <v>135.00399999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>195.489</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -27583,7 +27583,7 @@
         <v>116.967</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>105.04900000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -27707,7 +27707,7 @@
         <v>123.935</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -27769,7 +27769,7 @@
         <v>140.02199999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -27831,7 +27831,7 @@
         <v>92.031000000000006</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>87.989000000000004</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>121.96</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -28017,7 +28017,7 @@
         <v>153.75399999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -28079,7 +28079,7 @@
         <v>111.95399999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>203.709</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -28203,7 +28203,7 @@
         <v>127.02200000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>100.02800000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -28327,7 +28327,7 @@
         <v>77.724000000000004</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -28389,7 +28389,7 @@
         <v>115.012</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -28451,7 +28451,7 @@
         <v>131.024</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -28513,7 +28513,7 @@
         <v>171.21799999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -28575,7 +28575,7 @@
         <v>89.516999999999996</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>138.148</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -28699,7 +28699,7 @@
         <v>111.479</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>88.570999999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -28823,7 +28823,7 @@
         <v>150.56100000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>117.13</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -28947,7 +28947,7 @@
         <v>109.203</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -29009,7 +29009,7 @@
         <v>128.09399999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>144.495</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -29133,7 +29133,7 @@
         <v>117.307</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -29195,7 +29195,7 @@
         <v>146.536</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -29257,7 +29257,7 @@
         <v>165.37200000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -29319,7 +29319,7 @@
         <v>121.027</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -29381,7 +29381,7 @@
         <v>78.55</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -29443,7 +29443,7 @@
         <v>114.786</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -29505,7 +29505,7 @@
         <v>85.771000000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -29567,7 +29567,7 @@
         <v>135.99700000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>141.71799999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>175.191</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -29753,7 +29753,7 @@
         <v>93.429000000000002</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -29815,7 +29815,7 @@
         <v>106.97</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -29877,7 +29877,7 @@
         <v>202.10300000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -29939,7 +29939,7 @@
         <v>124.021</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>134.066</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -30063,7 +30063,7 @@
         <v>174.15199999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -30125,7 +30125,7 @@
         <v>143.56</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -30187,7 +30187,7 @@
         <v>159.99600000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>104.953</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>76.97</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -30373,7 +30373,7 @@
         <v>129.624</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -30435,7 +30435,7 @@
         <v>119.063</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -30497,7 +30497,7 @@
         <v>120.005</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -30559,7 +30559,7 @@
         <v>92.001000000000005</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -30621,7 +30621,7 @@
         <v>87.046999999999997</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -30683,7 +30683,7 @@
         <v>105.758</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -30745,7 +30745,7 @@
         <v>124.05200000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -30807,7 +30807,7 @@
         <v>88.83</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>90.028000000000006</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -30931,7 +30931,7 @@
         <v>67.331999999999994</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -30993,7 +30993,7 @@
         <v>136.34399999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>126.95</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>118.259</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -31179,7 +31179,7 @@
         <v>80.855999999999995</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>120.006</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>119.10899999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -31365,7 +31365,7 @@
         <v>120.002</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -31427,7 +31427,7 @@
         <v>172.08699999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -31489,7 +31489,7 @@
         <v>168.08699999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -31551,7 +31551,7 @@
         <v>91.98</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>94.007000000000005</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>109.976</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -31737,7 +31737,7 @@
         <v>94.021000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -31799,7 +31799,7 @@
         <v>92.037000000000006</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -31861,7 +31861,7 @@
         <v>159.95599999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -31923,7 +31923,7 @@
         <v>168.02199999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>92.006</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>104.986</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -32109,7 +32109,7 @@
         <v>94.016000000000005</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -32171,7 +32171,7 @@
         <v>166.03899999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -32233,7 +32233,7 @@
         <v>92.022999999999996</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -32295,7 +32295,7 @@
         <v>129.94999999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -32357,7 +32357,7 @@
         <v>173.98599999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -32419,7 +32419,7 @@
         <v>84.936000000000007</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -32481,7 +32481,7 @@
         <v>168.06200000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -32543,7 +32543,7 @@
         <v>110.005</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -32605,7 +32605,7 @@
         <v>128.95599999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -32667,7 +32667,7 @@
         <v>128.23099999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>91.997</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -32791,7 +32791,7 @@
         <v>148.773</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -32853,7 +32853,7 @@
         <v>150.97800000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -32915,7 +32915,7 @@
         <v>89.951999999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -32977,7 +32977,7 @@
         <v>82.007000000000005</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -33039,7 +33039,7 @@
         <v>130.03700000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>130.25299999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>176.06200000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -33225,7 +33225,7 @@
         <v>98.004999999999995</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -33287,7 +33287,7 @@
         <v>169.988</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -33349,7 +33349,7 @@
         <v>97.021000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -33411,7 +33411,7 @@
         <v>89.909000000000006</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -33473,7 +33473,7 @@
         <v>179.792</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -33535,7 +33535,7 @@
         <v>179.642</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -33597,7 +33597,7 @@
         <v>144.99199999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -33659,7 +33659,7 @@
         <v>129.017</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -33721,7 +33721,7 @@
         <v>119.917</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -33783,7 +33783,7 @@
         <v>104.06699999999999</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -33845,7 +33845,7 @@
         <v>175.99199999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -33907,7 +33907,7 @@
         <v>126.014</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -33969,7 +33969,7 @@
         <v>139.994</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>154.923</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -34093,7 +34093,7 @@
         <v>147.03700000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -34155,7 +34155,7 @@
         <v>105.991</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -34217,7 +34217,7 @@
         <v>99.004999999999995</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -34279,7 +34279,7 @@
         <v>139.923</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -34341,7 +34341,7 @@
         <v>136.959</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -34403,7 +34403,7 @@
         <v>157.96600000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -34465,7 +34465,7 @@
         <v>164.023</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -34527,7 +34527,7 @@
         <v>113.218</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -34589,7 +34589,7 @@
         <v>143.86000000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>165.398</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -34713,7 +34713,7 @@
         <v>94.981999999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -34775,7 +34775,7 @@
         <v>81.722999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -34837,7 +34837,7 @@
         <v>109.812</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -34899,7 +34899,7 @@
         <v>105.846</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>141.96100000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
